--- a/xlsx/欧洲_intext.xlsx
+++ b/xlsx/欧洲_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1371">
   <si>
     <t>欧洲</t>
   </si>
@@ -29,7 +29,7 @@
     <t>欧洲 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治_欧洲</t>
+    <t>体育运动_体育运动_体育_欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%BD%97%E5%B7%B4_(%E6%B6%88%E6%AD%A7%E4%B9%89)</t>
@@ -2966,796 +2966,808 @@
     <t>Template talk-Europe</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>聯合國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>聯合國會員國列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>亚美尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>拉脱维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
+  </si>
+  <si>
+    <t>列支敦士登</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>纳戈尔诺-卡拉巴赫共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>亞克羅提利與德凱利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
+  </si>
+  <si>
+    <t>扬马延</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>加泰罗尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>主權</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>圣座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>马耳他骑士团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>欧洲联盟成员国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
+  </si>
+  <si>
+    <t>阿姆斯特丹</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
+  </si>
+  <si>
+    <t>布鲁塞尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
+  </si>
+  <si>
+    <t>盧森堡市</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>伯尔尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>都柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
+  </si>
+  <si>
+    <t>瓦都茲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
+  </si>
+  <si>
+    <t>哥本哈根</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E9%99%86</t>
+  </si>
+  <si>
+    <t>奥斯陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9</t>
+  </si>
+  <si>
+    <t>斯德哥尔摩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA</t>
+  </si>
+  <si>
+    <t>赫尔辛基</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
+  </si>
+  <si>
+    <t>雷克雅維克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>里斯本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89</t>
+  </si>
+  <si>
+    <t>安卡拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>尼科西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
+  </si>
+  <si>
+    <t>聖馬力諾 (城市)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8E%B1%E5%A1%94</t>
+  </si>
+  <si>
+    <t>瓦莱塔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>安道尔城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
+  </si>
+  <si>
+    <t>加泰隆尼亞共和國 (2017年)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
+  </si>
+  <si>
+    <t>华沙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>布拉格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9E%97</t>
+  </si>
+  <si>
+    <t>塔林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>里加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E7%BA%BD%E6%96%AF</t>
+  </si>
+  <si>
+    <t>维尔纽斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85</t>
+  </si>
+  <si>
+    <t>基辅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%BE%BE%E4%BD%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>布达佩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E8%BF%AA%E6%96%AF%E6%8B%89%E5%8F%91</t>
+  </si>
+  <si>
+    <t>布拉迪斯拉发</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E5%85%8B</t>
+  </si>
+  <si>
+    <t>明斯克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B8%8C%E8%AE%B7%E4%B9%8C</t>
+  </si>
+  <si>
+    <t>基希讷乌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%8B%89%E6%96%AF%E6%B3%A2%E5%B0%94</t>
+  </si>
+  <si>
+    <t>蒂拉斯波尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8A%A0%E5%8B%92%E6%96%AF%E7%89%B9</t>
+  </si>
+  <si>
+    <t>布加勒斯特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>索菲亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
+  </si>
+  <si>
+    <t>波德戈里察</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
+  </si>
+  <si>
+    <t>普里什蒂納</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
+  </si>
+  <si>
+    <t>塞拉耶佛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E6%99%AE%E9%87%8C</t>
+  </si>
+  <si>
+    <t>斯科普里</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%8B%89%E9%82%A3</t>
+  </si>
+  <si>
+    <t>地拉那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E6%A0%BC%E8%8E%B1%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>贝尔格莱德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%B8%83%E5%B0%94%E9%9B%85%E9%82%A3</t>
+  </si>
+  <si>
+    <t>卢布尔雅那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%A0%BC%E5%8B%92%E5%B8%83</t>
+  </si>
+  <si>
+    <t>萨格勒布</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>澳大利亞洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>歐亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>地质学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>超大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>冈瓦那大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BA%9A%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>劳亚大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>盤古大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>潘諾西亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>羅迪尼亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>哥倫比亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>凱諾蘭大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>妮娜大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>烏爾大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>瓦巴拉大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>北極大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>阿瓦隆尼亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>波羅的大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>辛梅利亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>剛果克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>歐美大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>哈薩克大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>勞倫大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
+  </si>
+  <si>
+    <t>華北陸塊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>西伯利亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>扬子克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
+  </si>
+  <si>
+    <t>東南極克拉通</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>印度次大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>淹没的大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
+  </si>
+  <si>
+    <t>凱爾蓋朗海台</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>西兰大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>終極盤古大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>阿美西亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>新盤古大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>雷姆利亞大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>姆大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>未知的南方大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
+  </si>
+  <si>
+    <t>亚特兰蒂斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国地理区划列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>近东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
+  </si>
+  <si>
+    <t>東亞島弧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>東印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>撒哈拉以南非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>东部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
+  </si>
+  <si>
+    <t>非洲之角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西北非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>大中东地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东南欧</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
     <t>歐俄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF</t>
-  </si>
-  <si>
-    <t>马其顿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%88%88%E5%B0%94%E8%AF%BA-%E5%8D%A1%E6%8B%89%E5%B7%B4%E8%B5%AB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>纳戈尔诺-卡拉巴赫共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>亞克羅提利與德凱利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E9%A9%AC%E5%BB%B6</t>
-  </si>
-  <si>
-    <t>扬马延</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BD%97%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>加泰罗尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>主權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>圣座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%80%B3%E4%BB%96%E9%AA%91%E5%A3%AB%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>马耳他骑士团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E6%88%90%E5%91%98%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>欧洲联盟成员国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
-  </si>
-  <si>
-    <t>阿姆斯特丹</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%A1%9E%E5%B0%94</t>
-  </si>
-  <si>
-    <t>布鲁塞尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%B8%82</t>
-  </si>
-  <si>
-    <t>盧森堡市</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%B0%94%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>伯尔尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>都柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%83%BD%E8%8C%B2</t>
-  </si>
-  <si>
-    <t>瓦都茲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9</t>
-  </si>
-  <si>
-    <t>哥本哈根</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E9%99%86</t>
-  </si>
-  <si>
-    <t>奥斯陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E5%B0%94%E6%91%A9</t>
-  </si>
-  <si>
-    <t>斯德哥尔摩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B0%94%E8%BE%9B%E5%9F%BA</t>
-  </si>
-  <si>
-    <t>赫尔辛基</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E9%9B%85%E7%B6%AD%E5%85%8B</t>
-  </si>
-  <si>
-    <t>雷克雅維克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%96%AF%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>里斯本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%8D%A1%E6%8B%89</t>
-  </si>
-  <si>
-    <t>安卡拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A7%91%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>尼科西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%8A%9B%E8%AB%BE_(%E5%9F%8E%E5%B8%82)</t>
-  </si>
-  <si>
-    <t>聖馬力諾 (城市)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%8E%B1%E5%A1%94</t>
-  </si>
-  <si>
-    <t>瓦莱塔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>安道尔城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B_(2017%E5%B9%B4)</t>
-  </si>
-  <si>
-    <t>加泰隆尼亞共和國 (2017年)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
-  </si>
-  <si>
-    <t>华沙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>布拉格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%9E%97</t>
-  </si>
-  <si>
-    <t>塔林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>里加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%B0%94%E7%BA%BD%E6%96%AF</t>
-  </si>
-  <si>
-    <t>维尔纽斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%BE%85</t>
-  </si>
-  <si>
-    <t>基辅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%BE%BE%E4%BD%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>布达佩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%8B%89%E8%BF%AA%E6%96%AF%E6%8B%89%E5%8F%91</t>
-  </si>
-  <si>
-    <t>布拉迪斯拉发</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%96%AF%E5%85%8B</t>
-  </si>
-  <si>
-    <t>明斯克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%B8%8C%E8%AE%B7%E4%B9%8C</t>
-  </si>
-  <si>
-    <t>基希讷乌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%82%E6%8B%89%E6%96%AF%E6%B3%A2%E5%B0%94</t>
-  </si>
-  <si>
-    <t>蒂拉斯波尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%8A%A0%E5%8B%92%E6%96%AF%E7%89%B9</t>
-  </si>
-  <si>
-    <t>布加勒斯特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%8F%B2%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>索菲亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%BE%B7%E6%88%88%E9%87%8C%E5%AF%9F</t>
-  </si>
-  <si>
-    <t>波德戈里察</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E4%BB%80%E8%92%82%E7%B4%8D</t>
-  </si>
-  <si>
-    <t>普里什蒂納</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E8%80%B6%E4%BD%9B</t>
-  </si>
-  <si>
-    <t>塞拉耶佛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%A7%91%E6%99%AE%E9%87%8C</t>
-  </si>
-  <si>
-    <t>斯科普里</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%8B%89%E9%82%A3</t>
-  </si>
-  <si>
-    <t>地拉那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E6%A0%BC%E8%8E%B1%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>贝尔格莱德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E5%B8%83%E5%B0%94%E9%9B%85%E9%82%A3</t>
-  </si>
-  <si>
-    <t>卢布尔雅那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%A0%BC%E5%8B%92%E5%B8%83</t>
-  </si>
-  <si>
-    <t>萨格勒布</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>澳大利亞洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>地质学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>超大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%88%E7%93%A6%E9%82%A3%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>冈瓦那大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E4%BA%9A%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>劳亚大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E8%AB%BE%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>潘諾西亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E8%BF%AA%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>羅迪尼亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>哥倫比亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E8%AB%BE%E8%98%AD%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>凱諾蘭大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%AE%E5%A8%9C%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>妮娜大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E7%88%BE%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>烏爾大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%B7%B4%E6%8B%89%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>瓦巴拉大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>北極大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%93%A6%E9%9A%86%E5%B0%BC%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>阿瓦隆尼亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>波羅的大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%A2%85%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>辛梅利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>剛果克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>歐美大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>哈薩克大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>勞倫大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%8C%97%E9%99%B8%E5%A1%8A</t>
-  </si>
-  <si>
-    <t>華北陸塊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BC%AF%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>西伯利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%AC%E5%AD%90%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>扬子克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E6%A5%B5%E5%85%8B%E6%8B%89%E9%80%9A</t>
-  </si>
-  <si>
-    <t>東南極克拉通</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>印度次大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B9%E6%B2%A1%E7%9A%84%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>淹没的大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E8%93%8B%E6%9C%97%E6%B5%B7%E5%8F%B0</t>
-  </si>
-  <si>
-    <t>凱爾蓋朗海台</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%85%B0%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>西兰大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%82%E6%A5%B5%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>終極盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%8E%E8%A5%BF%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>阿美西亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%9B%A4%E5%8F%A4%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>新盤古大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%E5%88%A9%E4%BA%9E%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>雷姆利亞大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%86%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>姆大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E7%9F%A5%E7%9A%84%E5%8D%97%E6%96%B9%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>未知的南方大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF</t>
-  </si>
-  <si>
-    <t>亚特兰蒂斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>联合国地理区划列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>近东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>中东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
-  </si>
-  <si>
-    <t>東亞島弧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>東印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>东部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
-  </si>
-  <si>
-    <t>非洲之角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西北非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>大中东地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东南欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%9C%B0%E5%8C%BA</t>
@@ -4464,7 +4476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I735"/>
+  <dimension ref="A1:I736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5214,7 +5226,7 @@
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -6780,7 +6792,7 @@
         <v>150</v>
       </c>
       <c r="G80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -7679,7 +7691,7 @@
         <v>212</v>
       </c>
       <c r="G111" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -12232,7 +12244,7 @@
         <v>512</v>
       </c>
       <c r="G268" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -13392,7 +13404,7 @@
         <v>584</v>
       </c>
       <c r="G308" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -13421,7 +13433,7 @@
         <v>586</v>
       </c>
       <c r="G309" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -13450,7 +13462,7 @@
         <v>588</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -13479,7 +13491,7 @@
         <v>590</v>
       </c>
       <c r="G311" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -14320,7 +14332,7 @@
         <v>646</v>
       </c>
       <c r="G340" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -19395,7 +19407,7 @@
         <v>986</v>
       </c>
       <c r="G515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H515" t="s">
         <v>4</v>
@@ -19424,7 +19436,7 @@
         <v>988</v>
       </c>
       <c r="G516" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H516" t="s">
         <v>4</v>
@@ -19447,13 +19459,13 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>175</v>
+        <v>989</v>
       </c>
       <c r="F517" t="s">
-        <v>176</v>
+        <v>990</v>
       </c>
       <c r="G517" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H517" t="s">
         <v>4</v>
@@ -19476,13 +19488,13 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F518" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="G518" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H518" t="s">
         <v>4</v>
@@ -19505,10 +19517,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>989</v>
+        <v>103</v>
       </c>
       <c r="F519" t="s">
-        <v>990</v>
+        <v>104</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19650,13 +19662,13 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>543</v>
+        <v>999</v>
       </c>
       <c r="F524" t="s">
-        <v>544</v>
+        <v>1000</v>
       </c>
       <c r="G524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H524" t="s">
         <v>4</v>
@@ -19679,13 +19691,13 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F525" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G525" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H525" t="s">
         <v>4</v>
@@ -19708,10 +19720,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>999</v>
+        <v>539</v>
       </c>
       <c r="F526" t="s">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19888,7 +19900,7 @@
         <v>1012</v>
       </c>
       <c r="G532" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -19917,7 +19929,7 @@
         <v>1014</v>
       </c>
       <c r="G533" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H533" t="s">
         <v>4</v>
@@ -19946,7 +19958,7 @@
         <v>1016</v>
       </c>
       <c r="G534" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H534" t="s">
         <v>4</v>
@@ -19975,7 +19987,7 @@
         <v>1018</v>
       </c>
       <c r="G535" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H535" t="s">
         <v>4</v>
@@ -20004,7 +20016,7 @@
         <v>1020</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H536" t="s">
         <v>4</v>
@@ -20033,7 +20045,7 @@
         <v>1022</v>
       </c>
       <c r="G537" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H537" t="s">
         <v>4</v>
@@ -20062,7 +20074,7 @@
         <v>1024</v>
       </c>
       <c r="G538" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H538" t="s">
         <v>4</v>
@@ -20143,13 +20155,13 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>563</v>
+        <v>1029</v>
       </c>
       <c r="F541" t="s">
-        <v>564</v>
+        <v>1030</v>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H541" t="s">
         <v>4</v>
@@ -20172,13 +20184,13 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="F542" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="G542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H542" t="s">
         <v>4</v>
@@ -20201,10 +20213,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="F543" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G543" t="n">
         <v>2</v>
@@ -20230,13 +20242,13 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1029</v>
+        <v>577</v>
       </c>
       <c r="F544" t="s">
-        <v>1030</v>
+        <v>578</v>
       </c>
       <c r="G544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H544" t="s">
         <v>4</v>
@@ -20265,7 +20277,7 @@
         <v>1032</v>
       </c>
       <c r="G545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H545" t="s">
         <v>4</v>
@@ -20294,7 +20306,7 @@
         <v>1034</v>
       </c>
       <c r="G546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H546" t="s">
         <v>4</v>
@@ -20317,13 +20329,13 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>135</v>
+        <v>1035</v>
       </c>
       <c r="F547" t="s">
-        <v>136</v>
+        <v>1036</v>
       </c>
       <c r="G547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H547" t="s">
         <v>4</v>
@@ -20346,13 +20358,13 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1035</v>
+        <v>135</v>
       </c>
       <c r="F548" t="s">
-        <v>1036</v>
+        <v>136</v>
       </c>
       <c r="G548" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H548" t="s">
         <v>4</v>
@@ -20375,10 +20387,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>539</v>
+        <v>1037</v>
       </c>
       <c r="F549" t="s">
-        <v>540</v>
+        <v>1038</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20404,13 +20416,13 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1037</v>
+        <v>539</v>
       </c>
       <c r="F550" t="s">
-        <v>1038</v>
+        <v>540</v>
       </c>
       <c r="G550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H550" t="s">
         <v>4</v>
@@ -20439,7 +20451,7 @@
         <v>1040</v>
       </c>
       <c r="G551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H551" t="s">
         <v>4</v>
@@ -20468,7 +20480,7 @@
         <v>1042</v>
       </c>
       <c r="G552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H552" t="s">
         <v>4</v>
@@ -20520,13 +20532,13 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>527</v>
+        <v>1045</v>
       </c>
       <c r="F554" t="s">
-        <v>528</v>
+        <v>1046</v>
       </c>
       <c r="G554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H554" t="s">
         <v>4</v>
@@ -20549,13 +20561,13 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1045</v>
+        <v>527</v>
       </c>
       <c r="F555" t="s">
-        <v>1046</v>
+        <v>528</v>
       </c>
       <c r="G555" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H555" t="s">
         <v>4</v>
@@ -20584,7 +20596,7 @@
         <v>1048</v>
       </c>
       <c r="G556" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -20984,10 +20996,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>209</v>
+        <v>1075</v>
       </c>
       <c r="F570" t="s">
-        <v>210</v>
+        <v>1076</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -21013,10 +21025,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1075</v>
+        <v>209</v>
       </c>
       <c r="F571" t="s">
-        <v>1076</v>
+        <v>210</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -21135,7 +21147,7 @@
         <v>1084</v>
       </c>
       <c r="G575" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H575" t="s">
         <v>4</v>
@@ -21164,7 +21176,7 @@
         <v>1086</v>
       </c>
       <c r="G576" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H576" t="s">
         <v>4</v>
@@ -21419,10 +21431,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>571</v>
+        <v>1103</v>
       </c>
       <c r="F585" t="s">
-        <v>572</v>
+        <v>1104</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21448,10 +21460,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1103</v>
+        <v>571</v>
       </c>
       <c r="F586" t="s">
-        <v>1104</v>
+        <v>572</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21767,10 +21779,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>7</v>
+        <v>1125</v>
       </c>
       <c r="F597" t="s">
-        <v>8</v>
+        <v>1126</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21796,10 +21808,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="F598" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21825,10 +21837,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F599" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21854,10 +21866,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1125</v>
+        <v>49</v>
       </c>
       <c r="F600" t="s">
-        <v>1126</v>
+        <v>50</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21883,13 +21895,13 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F601" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="G601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H601" t="s">
         <v>4</v>
@@ -21912,13 +21924,13 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>75</v>
+        <v>1127</v>
       </c>
       <c r="F602" t="s">
-        <v>76</v>
+        <v>1128</v>
       </c>
       <c r="G602" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H602" t="s">
         <v>4</v>
@@ -21941,10 +21953,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1127</v>
+        <v>75</v>
       </c>
       <c r="F603" t="s">
-        <v>1128</v>
+        <v>76</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21970,13 +21982,13 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="F604" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="G604" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H604" t="s">
         <v>4</v>
@@ -22005,7 +22017,7 @@
         <v>1130</v>
       </c>
       <c r="G605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H605" t="s">
         <v>4</v>
@@ -22034,7 +22046,7 @@
         <v>1132</v>
       </c>
       <c r="G606" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H606" t="s">
         <v>4</v>
@@ -22092,7 +22104,7 @@
         <v>1136</v>
       </c>
       <c r="G608" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H608" t="s">
         <v>4</v>
@@ -22121,7 +22133,7 @@
         <v>1138</v>
       </c>
       <c r="G609" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H609" t="s">
         <v>4</v>
@@ -22179,7 +22191,7 @@
         <v>1142</v>
       </c>
       <c r="G611" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -22208,7 +22220,7 @@
         <v>1144</v>
       </c>
       <c r="G612" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H612" t="s">
         <v>4</v>
@@ -22353,7 +22365,7 @@
         <v>1154</v>
       </c>
       <c r="G617" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H617" t="s">
         <v>4</v>
@@ -22382,7 +22394,7 @@
         <v>1156</v>
       </c>
       <c r="G618" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -22405,10 +22417,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>7</v>
+        <v>1157</v>
       </c>
       <c r="F619" t="s">
-        <v>8</v>
+        <v>1158</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22434,10 +22446,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1157</v>
+        <v>7</v>
       </c>
       <c r="F620" t="s">
-        <v>1158</v>
+        <v>8</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22788,7 +22800,7 @@
         <v>1182</v>
       </c>
       <c r="G632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -22817,7 +22829,7 @@
         <v>1184</v>
       </c>
       <c r="G633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -22898,10 +22910,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1135</v>
+        <v>1189</v>
       </c>
       <c r="F636" t="s">
-        <v>1136</v>
+        <v>1190</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22927,10 +22939,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1189</v>
+        <v>1137</v>
       </c>
       <c r="F637" t="s">
-        <v>1190</v>
+        <v>1138</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -23136,7 +23148,7 @@
         <v>1204</v>
       </c>
       <c r="G644" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H644" t="s">
         <v>4</v>
@@ -23165,7 +23177,7 @@
         <v>1206</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23223,7 +23235,7 @@
         <v>1210</v>
       </c>
       <c r="G647" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -23252,7 +23264,7 @@
         <v>1212</v>
       </c>
       <c r="G648" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -23275,10 +23287,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>399</v>
+        <v>1213</v>
       </c>
       <c r="F649" t="s">
-        <v>400</v>
+        <v>1214</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23304,10 +23316,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1213</v>
+        <v>399</v>
       </c>
       <c r="F650" t="s">
-        <v>1214</v>
+        <v>400</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23397,7 +23409,7 @@
         <v>1220</v>
       </c>
       <c r="G653" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H653" t="s">
         <v>4</v>
@@ -23426,7 +23438,7 @@
         <v>1222</v>
       </c>
       <c r="G654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H654" t="s">
         <v>4</v>
@@ -23594,10 +23606,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="F660" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23652,10 +23664,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F662" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23681,10 +23693,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>937</v>
+        <v>1235</v>
       </c>
       <c r="F663" t="s">
-        <v>938</v>
+        <v>1236</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23710,10 +23722,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1235</v>
+        <v>937</v>
       </c>
       <c r="F664" t="s">
-        <v>1236</v>
+        <v>938</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23884,10 +23896,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>275</v>
+        <v>1247</v>
       </c>
       <c r="F670" t="s">
-        <v>276</v>
+        <v>1248</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23913,10 +23925,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>983</v>
+        <v>275</v>
       </c>
       <c r="F671" t="s">
-        <v>984</v>
+        <v>276</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23942,13 +23954,13 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="F672" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="G672" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H672" t="s">
         <v>4</v>
@@ -23971,13 +23983,13 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F673" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G673" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H673" t="s">
         <v>4</v>
@@ -24000,10 +24012,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="F674" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G674" t="n">
         <v>2</v>
@@ -24029,13 +24041,13 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F675" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="G675" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H675" t="s">
         <v>4</v>
@@ -24058,10 +24070,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F676" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -24087,13 +24099,13 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1127</v>
+        <v>1259</v>
       </c>
       <c r="F677" t="s">
-        <v>1128</v>
+        <v>1260</v>
       </c>
       <c r="G677" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -24116,13 +24128,13 @@
         <v>677</v>
       </c>
       <c r="E678" t="s">
-        <v>1257</v>
+        <v>1129</v>
       </c>
       <c r="F678" t="s">
-        <v>1258</v>
+        <v>1130</v>
       </c>
       <c r="G678" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -24145,10 +24157,10 @@
         <v>678</v>
       </c>
       <c r="E679" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="F679" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="G679" t="n">
         <v>1</v>
@@ -24174,10 +24186,10 @@
         <v>679</v>
       </c>
       <c r="E680" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F680" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="G680" t="n">
         <v>1</v>
@@ -24203,10 +24215,10 @@
         <v>680</v>
       </c>
       <c r="E681" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="F681" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="G681" t="n">
         <v>1</v>
@@ -24232,13 +24244,13 @@
         <v>681</v>
       </c>
       <c r="E682" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="F682" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="G682" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -24261,13 +24273,13 @@
         <v>682</v>
       </c>
       <c r="E683" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="F683" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="G683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H683" t="s">
         <v>4</v>
@@ -24290,10 +24302,10 @@
         <v>683</v>
       </c>
       <c r="E684" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="F684" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G684" t="n">
         <v>1</v>
@@ -24319,10 +24331,10 @@
         <v>684</v>
       </c>
       <c r="E685" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="F685" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="G685" t="n">
         <v>1</v>
@@ -24348,10 +24360,10 @@
         <v>685</v>
       </c>
       <c r="E686" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="F686" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="G686" t="n">
         <v>1</v>
@@ -24377,13 +24389,13 @@
         <v>686</v>
       </c>
       <c r="E687" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="F687" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="G687" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H687" t="s">
         <v>4</v>
@@ -24406,13 +24418,13 @@
         <v>687</v>
       </c>
       <c r="E688" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="F688" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -24435,10 +24447,10 @@
         <v>688</v>
       </c>
       <c r="E689" t="s">
-        <v>1011</v>
+        <v>1281</v>
       </c>
       <c r="F689" t="s">
-        <v>1012</v>
+        <v>1282</v>
       </c>
       <c r="G689" t="n">
         <v>1</v>
@@ -24464,10 +24476,10 @@
         <v>689</v>
       </c>
       <c r="E690" t="s">
-        <v>1279</v>
+        <v>1013</v>
       </c>
       <c r="F690" t="s">
-        <v>1280</v>
+        <v>1014</v>
       </c>
       <c r="G690" t="n">
         <v>1</v>
@@ -24493,10 +24505,10 @@
         <v>690</v>
       </c>
       <c r="E691" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="F691" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G691" t="n">
         <v>1</v>
@@ -24522,10 +24534,10 @@
         <v>691</v>
       </c>
       <c r="E692" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="F692" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="G692" t="n">
         <v>1</v>
@@ -24551,10 +24563,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="F693" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -24580,10 +24592,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="F694" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -24609,13 +24621,13 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="F695" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="G695" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H695" t="s">
         <v>4</v>
@@ -24638,13 +24650,13 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="F696" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="G696" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H696" t="s">
         <v>4</v>
@@ -24667,13 +24679,13 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="F697" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="G697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H697" t="s">
         <v>4</v>
@@ -24696,13 +24708,13 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F698" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G698" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H698" t="s">
         <v>4</v>
@@ -24725,10 +24737,10 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="F699" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="G699" t="n">
         <v>1</v>
@@ -24754,10 +24766,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F700" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -24783,13 +24795,13 @@
         <v>700</v>
       </c>
       <c r="E701" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="F701" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="G701" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H701" t="s">
         <v>4</v>
@@ -24812,13 +24824,13 @@
         <v>701</v>
       </c>
       <c r="E702" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="F702" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="G702" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H702" t="s">
         <v>4</v>
@@ -24841,10 +24853,10 @@
         <v>702</v>
       </c>
       <c r="E703" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F703" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="G703" t="n">
         <v>1</v>
@@ -24870,10 +24882,10 @@
         <v>703</v>
       </c>
       <c r="E704" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F704" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G704" t="n">
         <v>1</v>
@@ -24899,10 +24911,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F705" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -24928,13 +24940,13 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F706" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="G706" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H706" t="s">
         <v>4</v>
@@ -24957,13 +24969,13 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F707" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G707" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H707" t="s">
         <v>4</v>
@@ -24986,10 +24998,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F708" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -25015,10 +25027,10 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="F709" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="G709" t="n">
         <v>1</v>
@@ -25044,13 +25056,13 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>353</v>
+        <v>1321</v>
       </c>
       <c r="F710" t="s">
-        <v>354</v>
+        <v>1322</v>
       </c>
       <c r="G710" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -25073,13 +25085,13 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1319</v>
+        <v>353</v>
       </c>
       <c r="F711" t="s">
-        <v>1320</v>
+        <v>354</v>
       </c>
       <c r="G711" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -25102,10 +25114,10 @@
         <v>711</v>
       </c>
       <c r="E712" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="F712" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="G712" t="n">
         <v>1</v>
@@ -25131,10 +25143,10 @@
         <v>712</v>
       </c>
       <c r="E713" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="F713" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="G713" t="n">
         <v>1</v>
@@ -25160,10 +25172,10 @@
         <v>713</v>
       </c>
       <c r="E714" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F714" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G714" t="n">
         <v>1</v>
@@ -25189,10 +25201,10 @@
         <v>714</v>
       </c>
       <c r="E715" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="F715" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="G715" t="n">
         <v>1</v>
@@ -25218,13 +25230,13 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F716" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H716" t="s">
         <v>4</v>
@@ -25247,10 +25259,10 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F717" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G717" t="n">
         <v>2</v>
@@ -25276,13 +25288,13 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F718" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G718" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -25305,10 +25317,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>361</v>
+        <v>1337</v>
       </c>
       <c r="F719" t="s">
-        <v>362</v>
+        <v>1338</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -25334,10 +25346,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1335</v>
+        <v>361</v>
       </c>
       <c r="F720" t="s">
-        <v>1336</v>
+        <v>362</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -25363,10 +25375,10 @@
         <v>720</v>
       </c>
       <c r="E721" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="F721" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G721" t="n">
         <v>1</v>
@@ -25392,10 +25404,10 @@
         <v>721</v>
       </c>
       <c r="E722" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F722" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="G722" t="n">
         <v>1</v>
@@ -25421,10 +25433,10 @@
         <v>722</v>
       </c>
       <c r="E723" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F723" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G723" t="n">
         <v>1</v>
@@ -25450,10 +25462,10 @@
         <v>723</v>
       </c>
       <c r="E724" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F724" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G724" t="n">
         <v>1</v>
@@ -25479,10 +25491,10 @@
         <v>724</v>
       </c>
       <c r="E725" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="F725" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G725" t="n">
         <v>1</v>
@@ -25508,10 +25520,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F726" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -25537,10 +25549,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F727" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -25566,10 +25578,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F728" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -25595,10 +25607,10 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F729" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G729" t="n">
         <v>1</v>
@@ -25624,13 +25636,13 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="F730" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G730" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H730" t="s">
         <v>4</v>
@@ -25653,13 +25665,13 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="F731" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G731" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H731" t="s">
         <v>4</v>
@@ -25682,10 +25694,10 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F732" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G732" t="n">
         <v>1</v>
@@ -25711,10 +25723,10 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="F733" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G733" t="n">
         <v>1</v>
@@ -25740,10 +25752,10 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F734" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G734" t="n">
         <v>1</v>
@@ -25769,10 +25781,10 @@
         <v>734</v>
       </c>
       <c r="E735" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="F735" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="G735" t="n">
         <v>1</v>
@@ -25781,6 +25793,35 @@
         <v>4</v>
       </c>
       <c r="I735" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="s">
+        <v>0</v>
+      </c>
+      <c r="C736" t="s">
+        <v>1</v>
+      </c>
+      <c r="D736" t="n">
+        <v>735</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1369</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G736" t="n">
+        <v>1</v>
+      </c>
+      <c r="H736" t="s">
+        <v>4</v>
+      </c>
+      <c r="I736" t="n">
         <v>3</v>
       </c>
     </row>
